--- a/spreadsheet/macrofree/appsvc_checklist.es.xlsx
+++ b/spreadsheet/macrofree/appsvc_checklist.es.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1069,10 +1069,14 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Consulte la arquitectura de aplicación web de redundancia de zona de alta disponibilidad de línea de base para conocer los procedimientos recomendados</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
+          <t>Implemente una arquitectura de aplicaciones web de línea base con redundancia de zona de alta disponibilidad. Asegúrese de que Azure App Service esté en los niveles Premium v2/V3 o Aislado v2 para obtener compatibilidad con redundancia de zona.</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>Aproveche la redundancia de zona para garantizar una alta disponibilidad en caso de errores a nivel de zona. Utilice los niveles Premium V2/V3 o Isolated v2, que proporcionan compatibilidad con implementaciones con redundancia de zona y garantizan un tiempo de inactividad mínimo durante los desastres.</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -1086,7 +1090,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1105,7 +1109,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,10 +1119,14 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Utilice los niveles Premium y Estándar. Estos niveles admiten ranuras de ensayo y copias de seguridad automatizadas.</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="n"/>
+          <t>Utilice los niveles Premium y Estándar para las ranuras de almacenamiento provisional y las copias de seguridad automatizadas. Alinee el período de retención de copias de seguridad con las necesidades de recuperación ante desastres.</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>Aproveche las ranuras de preparación para implementaciones sin tiempo de inactividad y copias de seguridad automatizadas para garantizar la recuperación ante desastres. Elija el nivel adecuado (Estándar o Premium) en función del número de ranuras y los requisitos de recuperación ante desastres.</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1132,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1151,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1161,10 +1169,14 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las zonas de disponibilidad cuando corresponda regionalmente (requiere el nivel Premium v2 o v3)</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n"/>
+          <t>Aproveche las zonas de disponibilidad donde corresponda regionalmente (se requiere el nivel Premium V2/V3). Compruebe la compatibilidad regional con las zonas de disponibilidad.</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>Las zonas de disponibilidad proporcionan aislamiento físico en los centros de datos de una región, lo que reduce el tiempo de inactividad durante las interrupciones. Compruebe que su región es compatible con las zonas de disponibilidad y use los niveles Premium V2/V3 para las implementaciones con redundancia de zona.</t>
+        </is>
+      </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1178,7 +1190,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/migrate-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-service</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1207,10 +1219,14 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implementación de comprobaciones de estado</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n"/>
+          <t>Implemente comprobaciones de estado para supervisar y detectar problemas con las instancias de App Service. Las comprobaciones de estado permiten el reemplazo automático de instancias en caso de error.</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>Habilite las comprobaciones de estado para detectar instancias en mal estado en tiempo real y reemplazarlas automáticamente para mantener la alta disponibilidad y la confiabilidad de las aplicaciones.</t>
+        </is>
+      </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1224,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1253,10 +1269,14 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Consulte los procedimientos recomendados de copia de seguridad y restauración para Azure App Service</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Consulte los procedimientos recomendados de copia de seguridad y restauración para Azure App Service y App Service Environments (ASE) para garantizar la disponibilidad y recuperación de datos.</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>Siga los procedimientos recomendados para configurar copias de seguridad y restauraciones en Azure App Service y ASE para garantizar la disponibilidad de los datos y garantizar la recuperación durante escenarios de desastre.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1270,7 +1290,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-backup</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-backup</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1289,7 +1309,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1299,10 +1319,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implementación de los procedimientos recomendados de confiabilidad de Azure App Service</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Implemente los procedimientos recomendados de confiabilidad de Azure App Service, incluido el escalado automático, la tolerancia a errores, las comprobaciones de estado y la redundancia de zona.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Garantice la alta disponibilidad incorporando el escalado, la tolerancia a errores, la supervisión y la redundancia de zona en la arquitectura de App Service. Aproveche las comprobaciones de estado y las zonas de disponibilidad para mantener el tiempo de actividad.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1316,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1335,7 +1359,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1345,10 +1369,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Familiarizarse con cómo mover una aplicación de App Service a otra región durante un desastre</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>Familiarícese con la conmutación por error de la región de App Service, incluidas las configuraciones activo-activo y activo-pasivo, la conmutación por error automatizada y la implementación de IaC.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>Prepárese para la recuperación ante desastres mediante la implementación de estrategias de conmutación por error de región. Utilice configuraciones activo-activo y activo-pasivo, conmutación por error automatizada e infraestructura como código (IaC) para una conmutación por error sin interrupciones durante las interrupciones.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Bajo</t>
@@ -1362,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1381,7 +1409,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,10 +1419,14 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Familiarizarse con la compatibilidad con la confiabilidad en Azure App Service</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="n"/>
+          <t>Familiarícese con la compatibilidad con la confiabilidad de Azure App Service, incluidas las opciones de escalado, los acuerdos de nivel de servicio y los mecanismos de recuperación automatizados.</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service ofrece características de confiabilidad integradas, como el escalado, la tolerancia a errores y los contratos de nivel de servicio (SLA). Aproveche estas características para mantener un rendimiento constante durante las interrupciones.</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1408,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/reliability-app-service</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1427,7 +1459,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,10 +1469,14 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que "Siempre activado" está habilitado para las aplicaciones de funciones que se ejecutan en un plan de App Service</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>Asegúrese de que "Siempre activado" esté habilitado para las aplicaciones de funciones que se ejecutan en planes de App Service para evitar el inactividad y garantizar la disponibilidad continua.</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>La habilitación de "Siempre activado" para las aplicaciones de funciones garantiza que la aplicación no quede inactiva, manteniendo su disponibilidad y capacidad de respuesta en todo momento.</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1454,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-functions/dedicated-plan#always-on</t>
+          <t>https://learn.microsoft.com/azure/azure-functions/dedicated-plan#always-on</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1483,10 +1519,14 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Supervisión de instancias de App Service mediante comprobaciones de estado</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>Supervise las instancias de App Service mediante comprobaciones de estado para detectar instancias incorrectas y reemplazarlas automáticamente.</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>Las comprobaciones de estado supervisan el estado de las instancias de App Service, lo que permite el reemplazo automático de instancias incorrectas para mantener una alta disponibilidad.</t>
+        </is>
+      </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1500,7 +1540,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1524,15 +1564,19 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Alta disponibilidad</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Supervisión de la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web mediante pruebas de disponibilidad de Application Insights</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>Use la recuperación automática con reglas personalizadas para reiniciar automáticamente las instancias de App Service cuando se produzcan errores.</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Aproveche la recuperación automática en Azure App Service para reiniciar automáticamente las instancias o desencadenar acciones personalizadas en función de condiciones de error predefinidas, como umbrales de memoria, errores HTTP o registros de eventos específicos.</t>
+        </is>
+      </c>
       <c r="E18" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1546,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-diagnostics</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>60b3a935-33e5-45c9-87c7-53882e395b46</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1575,13 +1619,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Uso de la prueba estándar de Application Insights para supervisar la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web</t>
+          <t>Supervise la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web mediante pruebas de disponibilidad de Application Insights, lo que garantiza la detección proactiva de problemas de rendimiento y tiempo de inactividad.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1636,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-standard-tests</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1644,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,27 +1655,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Uso de Key Vault para almacenar secretos</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure Key Vault para almacenar los secretos que necesita la aplicación.  Key Vault proporciona un entorno seguro y auditado para almacenar secretos y está bien integrado con App Service a través del SDK de Key Vault o las referencias de Key Vault de App Service.</t>
-        </is>
-      </c>
+          <t>Uso de la prueba estándar de Application Insights para supervisar la disponibilidad y la capacidad de respuesta de la aplicación web o el sitio web</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1642,7 +1682,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-standard-tests</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1650,7 +1690,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1661,27 +1701,27 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Uso de la identidad administrada para conectarse a Key Vault</t>
+          <t>Configure alertas para métricas críticas de Application Insights, como el tiempo de respuesta y las tasas de error.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Use una identidad administrada para conectarse a Key Vault mediante el SDK de Key Vault o a través de las referencias de Key Vault de App Service.</t>
+          <t>Configure alertas de Azure Monitor en función de las métricas de Application Insights para los tiempos de respuesta, las tasas de errores y la disponibilidad general. Las alertas ayudan a detectar problemas de forma proactiva y a reducir el tiempo medio de recuperación (MTTR).</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1692,7 +1732,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/alerts</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1700,7 +1740,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>e52e4514-02a7-4e81-a98e-88ce1b18e557</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1721,12 +1761,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault para almacenar el certificado TLS.</t>
+          <t>Use Azure Key Vault para almacenar los secretos que necesite la aplicación. Key Vault proporciona un entorno seguro, administrado y auditado para almacenar secretos, y se integra sin problemas con App Service a través de las referencias de Key Vault del Servicio de aplicaciones para mejorar la seguridad.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Almacene el certificado TLS de App Service en Key Vault.</t>
+          <t>Azure Key Vault garantiza que los secretos estén cifrados, almacenados de forma segura y a los que solo accedan las aplicaciones autorizadas. Es compatible con el registro de auditoría y el control de versiones secretas, y reduce el riesgo de exposición accidental de información confidencial.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1742,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1750,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1771,17 +1811,17 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Aísle los sistemas que procesan información confidencial</t>
+          <t>Use la identidad administrada para conectarse de forma segura a Azure Key Vault para acceder a los secretos, a través de las referencias de Key Vault de App Service.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Los sistemas que procesan información confidencial deben estar aislados.  Para ello, use planes del Servicio de aplicaciones o entornos del Servicio de aplicaciones independientes y considere la posibilidad de usar suscripciones o grupos de administración diferentes.</t>
+          <t>Managed Identity elimina la necesidad de credenciales codificadas de forma rígida al permitir que App Service se autentique en Azure Key Vault de forma segura. Esto reduce el riesgo de exposición de credenciales y simplifica la gestión de secretos para mejorar la seguridad.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1792,7 +1832,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1800,7 +1840,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1821,17 +1861,17 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>No almacene datos confidenciales en el disco local</t>
+          <t>Use Azure Key Vault para almacenar y administrar de forma segura certificados TLS para App Service.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Los discos locales de App Service no están cifrados y los datos confidenciales no deben almacenarse en ellos.  (Por ejemplo: D:\\Local y %TMP%).</t>
+          <t>El almacenamiento de certificados TLS en Azure Key Vault mejora la seguridad al proporcionar una administración centralizada y segura y una renovación automatizada de certificados. Esto reduce el riesgo de errores de manipulación manual y de caducidad de certificados.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1842,7 +1882,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1850,7 +1890,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1866,17 +1906,17 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Control de identidad y acceso</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Usar un proveedor de identidades establecido para la autenticación</t>
+          <t>Aísle los sistemas que procesan información confidencial mediante planes de App Service y entornos de App Service (ASE) independientes y considere diferentes suscripciones o grupos de administración para mejorar la seguridad.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la aplicación web autenticada, use un proveedor de identidades bien establecido, como Azure AD o Azure AD B2C.  Aproveche el marco de aplicaciones de su elección para integrarse con este proveedor o use la característica de autenticación o autorización del Servicio de aplicaciones.</t>
+          <t>Para minimizar la exposición y mejorar la seguridad, aísle los sistemas que procesan datos confidenciales. Aproveche los planes de App Service o los entornos de App Service independientes para el aislamiento, y use diferentes suscripciones o grupos de administración para aplicar límites y gobernanza más estrictos.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1892,7 +1932,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1900,7 +1940,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1916,22 +1956,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Control de identidad y acceso</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Implementación desde un entorno de confianza</t>
+          <t>No almacene datos confidenciales en el disco local</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Implemente código en App Service desde un entorno controlado y de confianza, como una canalización de implementación de DevOps bien administrada y segura. De este modo, se evita el código que no se ha controlado la versión y se ha comprobado que se implementará desde un host malintencionado.</t>
+          <t>Los discos locales de App Service no están cifrados y los datos confidenciales no deben almacenarse en ellos.  (Por ejemplo: D:\\Local y %TMP%).</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1942,7 +1982,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1950,7 +1990,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,17 +2011,17 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Deshabilitar la autenticación básica</t>
+          <t>Use Microsoft Entra ID o B2C para la autenticación segura y el inicio de sesión único (SSO).</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite la autenticación básica tanto para FTP/FTPS como para WebDeploy/SCM.  Esto deshabilita el acceso a estos servicios y exige el uso de puntos de conexión protegidos de Azure AD para la implementación.  Tenga en cuenta que el sitio de SCM también se puede abrir con credenciales de Azure AD.</t>
+          <t>Use Microsoft Entra ID o B2C para la autenticación segura de usuarios y el inicio de sesión único (SSO) en todas las aplicaciones. Integre mediante la característica integrada de autenticación/autorización de App Service para optimizar la seguridad y el cumplimiento con protocolos de autenticación modernos, como OpenID Connect.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1992,14 +2032,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2020,12 +2060,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Uso de la identidad administrada para conectarse a los recursos</t>
+          <t>Implemente código en App Service desde un entorno seguro y de confianza.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Siempre que sea posible, use Managed Identity para conectarse a los recursos protegidos de Azure AD.  Si esto no es posible, almacene los secretos en Key Vault y conéctese a Key Vault mediante una identidad administrada en su lugar.</t>
+          <t>Asegúrese de que todas las implementaciones de código en App Service se originen en un entorno controlado y seguro, como una canalización de DevOps bien administrada. Esta práctica mitiga el riesgo de implementar código no autorizado o malintencionado mediante la aplicación del control de versiones, la verificación de código y el alojamiento seguro.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2041,14 +2081,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2069,12 +2109,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Extracción de contenedores mediante una identidad administrada</t>
+          <t>Deshabilite la autenticación básica para FTP/FTPS y WebDeploy/SCM.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas mediante una identidad administrada.</t>
+          <t>Deshabilite la autenticación básica para FTP/FTPS y WebDeploy/SCM para mejorar la seguridad mediante la aplicación de puntos de conexión protegidos por Microsoft Entra ID para la implementación. Esto garantiza que solo los usuarios autenticados con credenciales de Microsoft Entra ID puedan acceder a los servicios de implementación, incluido el sitio de SCM.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2090,14 +2130,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,22 +2153,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Registro y monitoreo</t>
+          <t>Control de identidad y acceso</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Envío de registros en tiempo de ejecución de App Service a Log Analytics</t>
+          <t>Use Managed Identity para conectarse a los recursos protegidos de Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Al configurar las opciones de diagnóstico de App Service, puede enviar todos los datos de telemetría a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad en tiempo de ejecución de App Service, como los registros HTTP, los registros de aplicaciones, los registros de plataforma, ...</t>
+          <t>Siempre que sea posible, use Managed Identity para conectarse de forma segura a los recursos protegidos por Microsoft Entra ID sin almacenar credenciales. Si esto no es factible, almacene los secretos en Azure Key Vault y acceda a ellos mediante Managed Identity para mantener la seguridad y reducir el riesgo de exposición de credenciales.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2139,14 +2179,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,22 +2202,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Registro y monitoreo</t>
+          <t>Control de identidad y acceso</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Envío de registros de actividad de App Service a Log Analytics</t>
+          <t>Extraiga imágenes de contenedor de Azure Container Registry mediante una identidad administrada.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Configure una configuración de diagnóstico para enviar el registro de actividad a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso de App Service.</t>
+          <t>Al usar imágenes almacenadas en Azure Container Registry, extraiga estas imágenes mediante una identidad administrada para evitar almacenar credenciales. Esto garantiza un acceso seguro a las imágenes de los contenedores y reduce el riesgo de exposición de credenciales.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2188,14 +2228,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2211,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Registro y monitoreo</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>El acceso a la red saliente debe controlarse</t>
+          <t>Envíe registros de seguridad y tiempo de ejecución de App Service a Log Analytics para una supervisión y alertas centralizadas.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Controle el acceso saliente a la red mediante una combinación de integración de red virtual regional, grupos de seguridad de red y UDR.  El tráfico debe enrutarse a una aplicación virtual de red, como Azure Firewall.  Asegúrese de supervisar los registros del cortafuegos.</t>
+          <t>Configure las opciones de diagnóstico para enviar registros de telemetría y seguridad (incluidos los registros de HTTP, de plataforma y de auditoría) a Log Analytics. El registro centralizado mejora la supervisión, la detección de amenazas y los informes de cumplimiento.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2237,7 +2277,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2285,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,22 +2301,22 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Seguridad de la red</t>
+          <t>Registro y monitoreo</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Garantizar una IP estable para las comunicaciones salientes hacia las direcciones de Internet</t>
+          <t>Envío de registros de actividad de App Service a Log Analytics</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Puede proporcionar una dirección IP de salida estable mediante la integración de red virtual y una puerta de enlace NAT de red virtual o una aplicación virtual de red como Azure Firewall.  Esto permite a la parte receptora incluir en la lista de permitidos en función de la IP, en caso de que sea necesario.  Tenga en cuenta que para las comunicaciones con los servicios de Azure, a menudo no es necesario depender de la dirección IP y, en su lugar, se deben usar mecanismos como los puntos de conexión de servicio.  (Además, el uso de puntos de conexión privados en el extremo receptor evita que se produzca SNAT y proporciona un intervalo de IP de salida estable).</t>
+          <t>Configure una configuración de diagnóstico para enviar el registro de actividad a Log Analytics como destino central para el registro y la supervisión. Esto le permite supervisar la actividad del plano de control en el propio recurso de App Service.</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2287,7 +2327,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2295,7 +2335,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2316,17 +2356,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>El acceso a la red entrante debe controlarse</t>
+          <t>Controle el acceso a la red de salida para App Service mediante la integración de redes virtuales, grupos de seguridad de red, UDR y firewalls.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Controle el acceso entrante a la red mediante una combinación de restricciones de acceso al Servicio de aplicaciones, puntos de conexión de servicio o puntos de conexión privados. Se pueden requerir y configurar diferentes restricciones de acceso para la propia aplicación web y el sitio de SCM.</t>
+          <t>Use la integración regional de redes virtuales, los grupos de seguridad de red (NSG) y las rutas definidas por el usuario (UDR) para controlar el acceso a la red de salida. Enrute el tráfico a través de una aplicación virtual de red (NVA), como Azure Firewall, y supervise los registros del firewall para asegurarse de que el tráfico se controla y protege correctamente.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2337,7 +2377,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2345,7 +2385,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2366,17 +2406,17 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Uso de un WAF delante de App Service</t>
+          <t>Garantice una dirección IP estable para las comunicaciones salientes mediante la puerta de enlace NAT de red virtual o Azure Firewall.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Protéjase contra el tráfico entrante malintencionado mediante un firewall de aplicaciones web como Application Gateway o Azure Front Door.  Asegúrese de supervisar los registros del WAF.</t>
+          <t>Proporcione una dirección IP de salida estable mediante la integración de red virtual con una puerta de enlace NAT o una aplicación virtual de red (NVA) como Azure Firewall. Esto permite a la parte receptora incluir en la lista de permitidos en función de la IP, si es necesario. Para las comunicaciones con los servicios de Azure, use mecanismos como puntos de conexión de servicio o puntos de conexión privados para evitar depender de direcciones IP estáticas, lo que garantiza una conectividad segura y eficaz.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2387,7 +2427,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2395,7 +2435,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2416,12 +2456,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Evite que se omita WAF</t>
+          <t>Controle el acceso a la red entrante mediante restricciones de acceso, puntos de conexión de servicio o puntos de conexión privados.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se pueda omitir el WAF bloqueando el acceso solo al WAF.  Use una combinación de restricciones de acceso, puntos de conexión de servicio y puntos de conexión privados.</t>
+          <t>Controle el acceso a la red entrante mediante la configuración de restricciones de acceso al Servicio de aplicaciones, puntos de conexión de servicio o puntos de conexión privados. Asegúrese de que se establecen las restricciones adecuadas tanto para la aplicación web como para el sitio de SCM (implementación) para limitar el acceso no autorizado y mejorar la seguridad.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2445,7 +2485,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2466,17 +2506,17 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Establezca la directiva TLS mínima en 1.2</t>
+          <t>Use un firewall de aplicaciones web (WAF) delante de App Service.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Establezca la directiva TLS mínima en 1.2 en la configuración de App Service.</t>
+          <t>Proteja App Service del tráfico entrante malintencionado mediante la implementación de un firewall de aplicaciones web (WAF) mediante Azure Application Gateway o Azure Front Door. Asegúrese de que los registros de WAF se supervisen con regularidad para detectar y responder a las amenazas de seguridad.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2527,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2495,7 +2535,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2516,12 +2556,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Usar solo HTTPS</t>
+          <t>Asegúrese de que el WAF no se puede omitir protegiendo el acceso a App Service.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Configure App Service para que use solo HTTPS.  Esto hace que App Service se redirija de HTTP a HTTPS.  Considere seriamente el uso de HTTP Strict Transport Security (HSTS) en su código o desde su WAF, que informa a los navegadores que solo se debe acceder al sitio mediante HTTPS.</t>
+          <t>Para evitar que se omita el firewall de aplicaciones web (WAF), bloquee el acceso a App Service mediante restricciones de acceso, puntos de conexión de servicio y puntos de conexión privados. Esto garantiza que todo el tráfico se enrute a través del WAF, proporcionando una capa frontal segura de protección.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2537,7 +2577,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2545,7 +2585,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2566,17 +2606,17 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Los comodines no deben usarse para CORS</t>
+          <t>Establezca la directiva TLS mínima en 1.2 o superior, preferiblemente 1.3, en la configuración de App Service.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>No utilice caracteres comodín en la configuración de CORS, ya que esto permite que todos los orígenes accedan al servicio (lo que anula el propósito de CORS). En concreto, solo permite los orígenes que esperas poder acceder al servicio.</t>
+          <t>Asegúrese de que la política de TLS mínima esté establecida en 1.2 o superior, con preferencia por TLS 1.3, para mejorar la seguridad a través de protocolos de cifrado más seguros. TLS 1.3 proporciona mejoras de seguridad adicionales y tiempos de enlace más rápidos, lo que reduce las vulnerabilidades asociadas con versiones anteriores.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2627,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2595,7 +2635,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2616,12 +2656,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Desactivar la depuración remota</t>
+          <t>Use solo HTTPS y considere la posibilidad de habilitar HTTP Strict Transport Security (HSTS).</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>La depuración remota no debe estar activada en producción, ya que esto abre puertos adicionales en el servicio, lo que aumenta la superficie expuesta a ataques. Tenga en cuenta que el servicio desactiva la depuración remota automáticamente después de 48 horas.</t>
+          <t>Configure App Service para aplicar solo HTTPS, redirigiendo automáticamente todo el tráfico HTTP a HTTPS. Además, implemente HTTP Strict Transport Security (HSTS) en su código o a través de un firewall de aplicaciones web (WAF) para garantizar que los navegadores solo accedan al sitio a través de HTTPS, mejorando la seguridad al evitar ataques de degradación.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2637,7 +2677,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2645,7 +2685,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2666,17 +2706,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Habilitación de Defender for Cloud: Defender for App Service</t>
+          <t>Evite el uso de comodines para CORS; Especifique explícitamente los orígenes permitidos.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender para App Service.  Esto (entre otras amenazas) detecta comunicaciones a direcciones IP maliciosas conocidas.  Revise las recomendaciones de Defender para App Service como parte de las operaciones.</t>
+          <t>No utilice comodines (*) en la configuración de CORS, ya que esto permite el acceso sin restricciones desde cualquier origen, lo que compromete la seguridad. En su lugar, especifique explícitamente los orígenes de confianza que pueden acceder al servicio, lo que garantiza un acceso controlado.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2687,7 +2727,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2695,7 +2735,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2716,17 +2756,17 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Habilitación del estándar de protección DDoS en la red virtual de WAF</t>
+          <t>Desactive la depuración remota en entornos de producción.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure proporciona protección básica contra DDoS en su red, que se puede mejorar con funcionalidades inteligentes de DDoS Standard que aprenden sobre los patrones de tráfico normales y pueden detectar comportamientos inusuales. DDoS Standard se aplica a una red virtual, por lo que debe configurarse para el recurso de red delante de la aplicación, como Application Gateway o una aplicación virtual de red.</t>
+          <t>La depuración remota no debe estar habilitada en producción, ya que abre puertos adicionales, lo que aumenta la superficie de ataque. Aunque App Service desactiva automáticamente la depuración remota después de 48 horas, se recomienda deshabilitarla manualmente en producción para mantener un entorno seguro.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,7 +2777,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2745,7 +2785,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2766,12 +2806,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Extracción de contenedores a través de una red virtual</t>
+          <t>Habilitación de Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Cuando use imágenes almacenadas en Azure Container Registry, extráigalas a través de una red virtual desde Azure Container Registry mediante su punto de conexión privado y la configuración de la aplicación "WEBSITE_PULL_IMAGE_OVER_VNET".</t>
+          <t>Habilite Defender para App Service.  Esto (entre otras amenazas) detecta las comunicaciones a direcciones IP maliciosas conocidas.  Revise las recomendaciones de Defender para App Service como parte de las operaciones.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2787,7 +2827,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2795,7 +2835,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2811,17 +2851,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Pruebas de penetración</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Realizar una prueba de penetración</t>
+          <t>Habilitación del estándar de protección DDoS en la red virtual de WAF</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>Realice una prueba de penetración en la aplicación web siguiendo las reglas de participación de las pruebas de penetración.</t>
+          <t>Azure proporciona protección básica contra DDoS en su red, que se puede mejorar con funcionalidades inteligentes de DDoS Standard que aprenden sobre los patrones de tráfico normales y pueden detectar comportamientos inusuales. DDoS Standard se aplica a una red virtual, por lo que debe configurarse para el recurso de red delante de la aplicación, como Application Gateway o una NVA.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2837,7 +2877,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2845,7 +2885,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2861,17 +2901,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Gestión de vulnerabilidades</t>
+          <t>Seguridad de la red</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Implementación de código validado</t>
+          <t>Extraiga imágenes de contenedor a través de una red virtual desde Azure Container Registry.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Implemente código de confianza que se haya validado y analizado en busca de vulnerabilidades de acuerdo con las prácticas de DevSecOps.</t>
+          <t>Al usar imágenes almacenadas en Azure Container Registry, asegúrese de que se extraigan de una red virtual mediante un punto de conexión privado y configure la configuración de la aplicación "WEBSITE_PULL_IMAGE_OVER_VNET". Esto garantiza una comunicación segura entre App Service y el Registro, lo que evita la exposición a la red pública de Internet.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2887,14 +2927,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2910,22 +2950,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Gestión de vulnerabilidades</t>
+          <t>Pruebas de penetración</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Utilizar plataformas, lenguajes, protocolos y marcos actualizados</t>
+          <t>Realizar una prueba de penetración en la aplicación web.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Utilice las versiones más recientes de plataformas, lenguajes de programación, protocolos y marcos compatibles.</t>
+          <t>Realice una prueba de penetración en la aplicación web de acuerdo con las reglas de interacción de las pruebas de penetración de Azure. Esto ayuda a identificar vulnerabilidades y debilidades de seguridad que se pueden abordar antes de que se exploten.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2936,7 +2976,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2944,7 +2984,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2953,83 +2993,248 @@
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de vulnerabilidades</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Implemente código validado y analizado de vulnerabilidades.</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que solo el código de confianza, que ha sido validado y analizado en busca de vulnerabilidades, se implemente en producción siguiendo las prácticas de DevSecOps. Esto minimiza el riesgo de introducir vulnerabilidades de seguridad en el entorno de la aplicación.</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de vulnerabilidades</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Utilice plataformas, lenguajes, protocolos y marcos actualizados</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que se utilizan las versiones más recientes de las plataformas, lenguajes de programación, protocolos y marcos compatibles. Las actualizaciones periódicas mitigan el riesgo de vulnerabilidades de seguridad y garantizan la compatibilidad con los parches de seguridad.</t>
+        </is>
+      </c>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza de costos</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Monitoreo de costos</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Supervise los costos de App Service con Azure Cost Management y cree alertas de costos.</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="inlineStr">
+        <is>
+          <t>Aproveche Azure Cost Management para realizar un seguimiento y pronosticar los gastos de App Service. Configure alertas para los umbrales de presupuesto a fin de evitar gastos excesivos y optimice los costos en función de las tendencias de utilización de recursos.</t>
+        </is>
+      </c>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>42eb48f0-28ff-497c-b2c0-a8fa1f989832</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza de costos</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Optimización de costos</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Compre instancias reservadas para los planes de App Service a fin de optimizar los costos a largo plazo.</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>Si tiene un uso predecible y constante de App Service, la compra de instancias reservadas puede reducir significativamente los costos a largo plazo. Comprométase a uno o tres años para obtener precios más bajos en comparación con el pago por uso.</t>
+        </is>
+      </c>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>e489221b-487e-48a3-aaab-48e3d205ca12</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Gobernabilidad y seguridad</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Conformidad</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Aplique Azure Policy para exigir el cumplimiento en todas las configuraciones de App Service.</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="inlineStr">
+        <is>
+          <t>Use Azure Policy para aplicar configuraciones de seguridad, cumplimiento y gobernanza para App Service. Las directivas pueden garantizar que la configuración crítica, como las versiones de TLS, las configuraciones de copia de seguridad y las restricciones de red, se aplique en todas las instancias de App Service.</t>
+        </is>
+      </c>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>361e886f-ca40-4ead-a8e9-1379c642ae9c</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -7046,7 +7251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7174,7 +7379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7201,7 +7406,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BC y DR</t>
+          <t>BC y RD</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7223,7 +7428,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
